--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33_no_assign.xlsx
@@ -58,12 +58,6 @@
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
-    <t>Clicks on course</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
@@ -73,7 +67,10 @@
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Start of Session 2 (%)</t>
+    <t>Clicks on course</t>
+  </si>
+  <si>
+    <t>Number of clicks</t>
   </si>
   <si>
     <t>Clicks per day</t>
@@ -82,25 +79,40 @@
     <t>Number of sessions</t>
   </si>
   <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
     <t>Clicks (% of course total)</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Clicks per session</t>
   </si>
   <si>
-    <t>Number of clicks</t>
+    <t>Clicks on forum</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
+    <t>Assignments viewed</t>
   </si>
   <si>
     <t>Start of Session 10 (%)</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
@@ -109,28 +121,13 @@
     <t>Number of days</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
+    <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Discussions viewed</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
   </si>
   <si>
     <t>Assignments submitted</t>
@@ -142,10 +139,13 @@
     <t>Start of Session 8 (%)</t>
   </si>
   <si>
-    <t>Submissions (% of course total)</t>
+    <t>Quizzes started</t>
   </si>
   <si>
     <t>Files downloaded</t>
+  </si>
+  <si>
+    <t>Submissions (% of course total)</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -677,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -805,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -817,13 +817,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -834,10 +834,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -849,13 +849,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -913,16 +913,16 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -962,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -1029,25 +1029,25 @@
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1058,7 +1058,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1125,25 +1125,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1195,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -1253,25 +1253,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -1282,28 +1282,28 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>4</v>
@@ -1474,13 +1474,13 @@
         <v>39</v>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1506,13 +1506,13 @@
         <v>40</v>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1772,10 +1772,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1799,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>25</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -2171,16 +2171,16 @@
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -2284,48 +2284,48 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -2343,21 +2343,21 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2380,16 +2380,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2604,16 +2604,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -2663,12 +2663,12 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2818,13 +2818,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2882,13 +2882,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -2911,10 +2911,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -2937,13 +2937,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -2964,12 +2964,12 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -2987,21 +2987,21 @@
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3019,21 +3019,21 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3042,13 +3042,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -3080,16 +3080,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -3097,16 +3097,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3129,16 +3129,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3147,13 +3147,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -3161,19 +3161,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -3188,12 +3188,12 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -3220,59 +3220,59 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -3289,39 +3289,39 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -3330,10 +3330,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -3353,13 +3353,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -3371,13 +3371,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -3385,16 +3385,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -3417,13 +3417,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -3444,12 +3444,12 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3467,36 +3467,36 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -3508,21 +3508,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3586,13 +3586,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3919,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -3937,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3969,12 +3969,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4038,16 +4038,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4073,7 +4073,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -4097,21 +4097,21 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4120,13 +4120,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4166,13 +4166,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -4181,16 +4181,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -4207,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -4230,22 +4230,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -4257,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4265,19 +4265,19 @@
         <v>26</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -4335,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -4358,31 +4358,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -4393,10 +4393,10 @@
         <v>25</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -4408,13 +4408,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -4463,10 +4463,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -4486,10 +4486,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -4498,19 +4498,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4585,10 +4585,10 @@
         <v>32</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -4600,13 +4600,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4710,16 +4710,16 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4783,10 +4783,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33_no_assign.xlsx
@@ -58,6 +58,9 @@
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
+    <t>Clicks on course</t>
+  </si>
+  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
@@ -67,10 +70,10 @@
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Clicks on course</t>
+    <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Number of clicks</t>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Clicks per day</t>
@@ -79,40 +82,25 @@
     <t>Number of sessions</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
+    <t>Clicks (% of course total)</t>
   </si>
   <si>
-    <t>Start of Session 2 (%)</t>
+    <t>Clicks per session</t>
   </si>
   <si>
-    <t>Clicks (% of course total)</t>
+    <t>Number of clicks</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Clicks per session</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
     <t>Start of Session 10 (%)</t>
   </si>
   <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
+    <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
@@ -121,13 +109,28 @@
     <t>Number of days</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
   </si>
   <si>
     <t>Discussions viewed</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Quizzes started</t>
   </si>
   <si>
     <t>Assignments submitted</t>
@@ -139,13 +142,10 @@
     <t>Start of Session 8 (%)</t>
   </si>
   <si>
-    <t>Quizzes started</t>
+    <t>Submissions (% of course total)</t>
   </si>
   <si>
     <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Submissions (% of course total)</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -770,13 +770,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -805,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -817,13 +817,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -834,10 +834,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -849,13 +849,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -913,16 +913,16 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -962,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -1029,25 +1029,25 @@
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1058,7 +1058,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1090,13 +1090,13 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -1131,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -1160,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1186,28 +1186,28 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -1218,13 +1218,13 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1253,25 +1253,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -1314,7 +1314,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -1323,22 +1323,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1474,13 +1474,13 @@
         <v>39</v>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -2028,10 +2028,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -2087,12 +2087,12 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -2136,19 +2136,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2156,10 +2156,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -2212,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -2232,19 +2232,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -2284,16 +2284,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2348,16 +2348,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2572,16 +2572,16 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -2663,12 +2663,12 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2809,10 +2809,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2937,22 +2937,22 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -2964,18 +2964,18 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -2984,16 +2984,16 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3033,13 +3033,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -3048,16 +3048,16 @@
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -3097,16 +3097,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -3129,22 +3129,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -3156,15 +3156,15 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -3193,10 +3193,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -3205,19 +3205,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -3225,31 +3225,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -3257,48 +3257,48 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -3333,10 +3333,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -3353,10 +3353,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3394,13 +3394,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -3417,10 +3417,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -3444,12 +3444,12 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -3467,21 +3467,21 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3490,13 +3490,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -3508,18 +3508,18 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3577,7 +3577,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3586,13 +3586,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3618,13 +3618,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,10 +3878,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -3905,12 +3905,12 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4006,16 +4006,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4073,7 +4073,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -4097,21 +4097,21 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4120,13 +4120,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4166,13 +4166,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -4181,16 +4181,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -4207,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -4230,16 +4230,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4306,10 +4306,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -4326,19 +4326,19 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -4358,22 +4358,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -4390,31 +4390,31 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -4422,13 +4422,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -4440,13 +4440,13 @@
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -4454,22 +4454,22 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -4481,15 +4481,15 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -4498,19 +4498,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -4582,13 +4582,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -4600,13 +4600,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4719,13 +4719,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4751,13 +4751,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -4801,12 +4801,12 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33_no_assign.xlsx
@@ -61,6 +61,9 @@
     <t>Clicks on course</t>
   </si>
   <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
@@ -68,12 +71,6 @@
   </si>
   <si>
     <t>Resources viewed</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Clicks per day</t>
@@ -91,37 +88,40 @@
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
+    <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Discussions viewed</t>
@@ -130,13 +130,13 @@
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
     <t>Assignments submitted</t>
   </si>
   <si>
     <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Quizzes started</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
@@ -677,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -770,13 +770,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -805,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -817,13 +817,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -834,10 +834,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -849,13 +849,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -866,13 +866,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -881,16 +881,16 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -930,10 +930,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -945,13 +945,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -994,7 +994,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -1058,7 +1058,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1090,13 +1090,13 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -1218,13 +1218,13 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1314,7 +1314,7 @@
         <v>34</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -1323,22 +1323,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1506,7 +1506,7 @@
         <v>40</v>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1799,12 +1799,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1868,16 +1868,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1895,12 +1895,12 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1912,62 +1912,62 @@
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1982,36 +1982,36 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2023,18 +2023,18 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2055,18 +2055,18 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2087,18 +2087,18 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2124,31 +2124,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -2156,25 +2156,25 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -2183,50 +2183,50 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -2247,18 +2247,18 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -2279,18 +2279,18 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2380,13 +2380,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2407,18 +2407,18 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2439,18 +2439,18 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -2471,18 +2471,18 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2503,21 +2503,21 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -2532,15 +2532,15 @@
         <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2572,16 +2572,16 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -2663,12 +2663,12 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2809,16 +2809,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2914,13 +2914,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -2937,13 +2937,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -2952,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -2964,12 +2964,12 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2978,13 +2978,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -3097,22 +3097,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -3129,22 +3129,22 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -3161,31 +3161,31 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -3196,10 +3196,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -3211,13 +3211,13 @@
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -3225,16 +3225,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -3257,39 +3257,39 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -3353,13 +3353,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -3368,16 +3368,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -3397,30 +3397,30 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -3444,12 +3444,12 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3493,19 +3493,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -3513,22 +3513,22 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -3540,12 +3540,12 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3618,13 +3618,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,10 +3878,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -3905,12 +3905,12 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3919,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -3937,12 +3937,12 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3969,12 +3969,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -4006,16 +4006,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -4038,16 +4038,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4070,16 +4070,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4097,21 +4097,21 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4120,13 +4120,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4166,13 +4166,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -4181,16 +4181,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -4230,16 +4230,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -4262,10 +4262,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -4294,13 +4294,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -4309,16 +4309,16 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -4326,22 +4326,22 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -4367,13 +4367,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -4399,13 +4399,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -4422,45 +4422,45 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -4481,15 +4481,15 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -4498,27 +4498,27 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -4582,10 +4582,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -4597,16 +4597,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4623,10 +4623,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4719,13 +4719,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33_no_assign.xlsx
@@ -73,6 +73,9 @@
     <t>Resources viewed</t>
   </si>
   <si>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
     <t>Clicks per day</t>
   </si>
   <si>
@@ -94,19 +97,7 @@
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Start of Session 6 (%)</t>
@@ -115,28 +106,37 @@
     <t>Number of days</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
+    <t>Quizzes started</t>
   </si>
   <si>
     <t>Assignments submitted</t>
   </si>
   <si>
     <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
@@ -805,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -817,13 +817,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -834,10 +834,10 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -849,13 +849,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -866,13 +866,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -881,16 +881,16 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -930,10 +930,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -945,13 +945,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -994,7 +994,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -1058,7 +1058,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -1186,7 +1186,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -1250,7 +1250,7 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -1387,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -1740,13 +1740,13 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1767,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1868,10 +1868,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1895,12 +1895,12 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -1996,31 +1996,31 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -2063,7 +2063,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2092,10 +2092,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2168,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -2183,15 +2183,15 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2215,15 +2215,15 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2252,31 +2252,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2284,25 +2284,25 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -2316,16 +2316,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2375,12 +2375,12 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2850,13 +2850,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2882,13 +2882,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -2920,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -2937,16 +2937,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -2964,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2975,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -2996,12 +2996,12 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3019,21 +3019,21 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3042,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -3051,27 +3051,27 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -3080,16 +3080,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -3103,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -3112,16 +3112,16 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -3129,19 +3129,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -3156,12 +3156,12 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -3173,19 +3173,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -3193,10 +3193,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -3225,13 +3225,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -3257,13 +3257,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -3301,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -3316,12 +3316,12 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -3330,13 +3330,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -3356,7 +3356,7 @@
         <v>30</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -3368,16 +3368,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -3385,45 +3385,45 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -3432,24 +3432,24 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3481,31 +3481,31 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3522,10 +3522,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3705,7 +3705,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3969,21 +3969,21 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -4015,13 +4015,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -4038,16 +4038,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -4129,12 +4129,12 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -4143,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -4152,24 +4152,24 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -4181,16 +4181,16 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -4198,16 +4198,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -4216,13 +4216,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -4230,13 +4230,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -4248,13 +4248,13 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -4262,19 +4262,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -4289,12 +4289,12 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4306,27 +4306,27 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -4335,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -4358,16 +4358,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -4390,13 +4390,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -4408,13 +4408,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -4449,15 +4449,15 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -4489,28 +4489,28 @@
         <v>36</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>4</v>
@@ -4518,13 +4518,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -4545,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -4577,27 +4577,27 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -4626,27 +4626,27 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -4801,12 +4801,12 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
